--- a/Repository.App.xlsx
+++ b/Repository.App.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D56E47-881D-453E-B13A-CC8FD20F8690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD802B0E-AB7B-4EDB-8DF7-8A4711F530B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensions" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="311">
   <si>
     <t>No.</t>
   </si>
@@ -966,6 +966,15 @@
   </si>
   <si>
     <t xml:space="preserve">$(vL.exp.KPIs(Actual,GrossProfit,Actual,MtD,sum)) </t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>dm21</t>
   </si>
 </sst>
 </file>
@@ -2598,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B63960F-A838-4C2B-93E5-FE66BBCBEA1C}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3191,14 +3200,30 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
@@ -3409,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7559909-765B-4F1B-A749-62E9577E2F0D}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5146,9 +5171,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5316,19 +5344,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A82FCA-B5ED-4BEE-AF6B-F225D43028C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFAE244-286F-43D4-AF94-E2F6B4457669}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5352,9 +5376,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFAE244-286F-43D4-AF94-E2F6B4457669}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10A82FCA-B5ED-4BEE-AF6B-F225D43028C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>